--- a/papers/ida2015/doc-Experiements/resultsExperiments/cajamar/AccRocPlot.xlsx
+++ b/papers/ida2015/doc-Experiements/resultsExperiments/cajamar/AccRocPlot.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Sample</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve"> Accuracy</t>
   </si>
@@ -75,6 +74,802 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>0.984850836618756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.985195071231261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.985019334252724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.984981150431716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.985994570582428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.985138004246284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.985131124704742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.985229310397228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.984425545236356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98426386913229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98421619036231</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.984266094168161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.984024523241076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.984204131227217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.984239856771818</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.984791539201118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.985804838853673</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.985416303526814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.986294148655772</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.986807697957984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.986493840597635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.987674728844034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.988892111368909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.988885098641196</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.990128445663154</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.990974050394885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.990471135985332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.991227073987848</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.991650053451214</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.991270665506497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.992120160441498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.991751812318054</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.990768138241212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.992032990153449</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99196900715437</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.991626761526884</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.991679082450172</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.991822789772886</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.990888489124594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.990975181749812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.990556370987842</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.990180920606504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.990269669168751</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.990158782666225</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.988922710731696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.989390642002176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98943381727365</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.988394099003579</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.989459526227663</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.989461840335903</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.988842239766348</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.989443404162935</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.988907896915181</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.988181221273801</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.989033970560634</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.988385253853616</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.987511111111111</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98832209777589</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.988114646331843</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98758834307652</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.988122827346465</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.98807800615838</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.987390840392865</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.986678438806512</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.987653658274733</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.987551776282627</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.987590928540864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.987816383190921</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.987827386183863</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.987963730708535</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.988143364896763</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.988058713166317</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.987647313223051</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.987542745481192</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.988461367771712</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.988925081433224</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.989283621242988</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.989094506779394</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.990032761397079</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.990106328538124</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.989433259101031</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.990551137465709</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.990797812310096</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.989977397776306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2116658760"/>
+        <c:axId val="2108765336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2116658760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108765336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108765336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116658760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>0.62122158903167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.640505711421411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.670050099919877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6300518223186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.613432614915995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60837582888767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.631420874527156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.600180392462627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.668643870488756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66226499104034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.647701677716679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.661286481459907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.677041569760387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.680113421352243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.734960152984469</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.681857106788463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71708152000712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.729542338237975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.758649761829757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.712205192153132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.782594812927463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.742247784233255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.756327365593968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.788705595388218</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.763896805328977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.764574066677212</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.855095096348386</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.799098295044109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.791768973663568</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.814264602993278</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.785776291773474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.762169049815498</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.859606696346058</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.799566399108356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.798355967545391</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.844148556289505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.792762161915545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.808459216559001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.873913243531205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.802116077344238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.830445201507849</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.838079490509346</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.775110918795367</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.782150650748941</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.866416515774801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.799181339531607</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.790058394972471</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86286718692642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.799910976873677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.793442752394995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.881881936005262</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.829890049528163</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.803158860724078</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.873665268664705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.826833428941591</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.818707923381622</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.888415040984855</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.829427228824477</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.814894738404167</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.889498867580416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.824704818135611</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.828641811317912</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.891649826458728</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.856982655618853</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.827704869126096</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.898757667880797</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.834030264557683</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.840756176262261</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.908896169760089</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.855742726975352</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.848445899717927</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.901200589884634</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.833584772834143</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.835979887625562</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.913279573602111</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.861681326978904</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.852922772971188</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.918969334665078</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.878426215982909</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.878501957106911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.941296967680164</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.904821439303822</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.900197322885362</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.951692059144305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121547528"/>
+        <c:axId val="2121529960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121547528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121529960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121529960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121547528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,17 +1194,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -417,1183 +1212,928 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32213</v>
+        <v>0.98485083661875605</v>
       </c>
       <c r="C2">
-        <v>0.98485083661875605</v>
-      </c>
-      <c r="D2">
         <v>0.62122158903167002</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>32219</v>
+        <v>0.98519507123126104</v>
       </c>
       <c r="C3">
-        <v>0.98519507123126104</v>
-      </c>
-      <c r="D3">
         <v>0.64050571142141099</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36981</v>
+        <v>0.98501933425272403</v>
       </c>
       <c r="C4">
-        <v>0.98501933425272403</v>
-      </c>
-      <c r="D4">
         <v>0.67005009991987696</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32892</v>
+        <v>0.98498115043171597</v>
       </c>
       <c r="C5">
-        <v>0.98498115043171597</v>
-      </c>
-      <c r="D5">
         <v>0.63005182231860002</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32416</v>
+        <v>0.98599457058242801</v>
       </c>
       <c r="C6">
-        <v>0.98599457058242801</v>
-      </c>
-      <c r="D6">
         <v>0.61343261491599499</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32970</v>
+        <v>0.98513800424628395</v>
       </c>
       <c r="C7">
-        <v>0.98513800424628395</v>
-      </c>
-      <c r="D7">
         <v>0.60837582888766994</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>33022</v>
+        <v>0.98513112470474196</v>
       </c>
       <c r="C8">
-        <v>0.98513112470474196</v>
-      </c>
-      <c r="D8">
         <v>0.63142087452715601</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>32903</v>
+        <v>0.98522931039722805</v>
       </c>
       <c r="C9">
-        <v>0.98522931039722805</v>
-      </c>
-      <c r="D9">
         <v>0.600180392462627</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>38332</v>
+        <v>0.98442554523635595</v>
       </c>
       <c r="C10">
-        <v>0.98442554523635595</v>
-      </c>
-      <c r="D10">
         <v>0.66864387048875595</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>33744</v>
+        <v>0.98426386913229003</v>
       </c>
       <c r="C11">
-        <v>0.98426386913229003</v>
-      </c>
-      <c r="D11">
         <v>0.66226499104033998</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>33452</v>
+        <v>0.98421619036231001</v>
       </c>
       <c r="C12">
-        <v>0.98421619036231001</v>
-      </c>
-      <c r="D12">
         <v>0.64770167771667897</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>34003</v>
+        <v>0.98426609416816102</v>
       </c>
       <c r="C13">
-        <v>0.98426609416816102</v>
-      </c>
-      <c r="D13">
         <v>0.66128648145990698</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>33927</v>
+        <v>0.98402452324107603</v>
       </c>
       <c r="C14">
-        <v>0.98402452324107603</v>
-      </c>
-      <c r="D14">
         <v>0.67704156976038699</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>33743</v>
+        <v>0.98420413122721695</v>
       </c>
       <c r="C15">
-        <v>0.98420413122721695</v>
-      </c>
-      <c r="D15">
         <v>0.68011342135224295</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>39657</v>
+        <v>0.98423985677181802</v>
       </c>
       <c r="C16">
-        <v>0.98423985677181802</v>
-      </c>
-      <c r="D16">
         <v>0.73496015298446904</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>34323</v>
+        <v>0.98479153920111795</v>
       </c>
       <c r="C17">
-        <v>0.98479153920111795</v>
-      </c>
-      <c r="D17">
         <v>0.68185710678846301</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>33603</v>
+        <v>0.98580483885367298</v>
       </c>
       <c r="C18">
-        <v>0.98580483885367298</v>
-      </c>
-      <c r="D18">
         <v>0.71708152000712</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>34422</v>
+        <v>0.98541630352681397</v>
       </c>
       <c r="C19">
-        <v>0.98541630352681397</v>
-      </c>
-      <c r="D19">
         <v>0.72954233823797499</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34146</v>
+        <v>0.98629414865577203</v>
       </c>
       <c r="C20">
-        <v>0.98629414865577203</v>
-      </c>
-      <c r="D20">
         <v>0.75864976182975696</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>34035</v>
+        <v>0.98680769795798395</v>
       </c>
       <c r="C21">
-        <v>0.98680769795798395</v>
-      </c>
-      <c r="D21">
         <v>0.71220519215313205</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>40426</v>
+        <v>0.98649384059763501</v>
       </c>
       <c r="C22">
-        <v>0.98649384059763501</v>
-      </c>
-      <c r="D22">
         <v>0.78259481292746302</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34482</v>
+        <v>0.98767472884403396</v>
       </c>
       <c r="C23">
-        <v>0.98767472884403396</v>
-      </c>
-      <c r="D23">
         <v>0.74224778423325499</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>34480</v>
+        <v>0.98889211136890898</v>
       </c>
       <c r="C24">
-        <v>0.98889211136890898</v>
-      </c>
-      <c r="D24">
         <v>0.75632736559396796</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>35178</v>
+        <v>0.988885098641196</v>
       </c>
       <c r="C25">
-        <v>0.988885098641196</v>
-      </c>
-      <c r="D25">
         <v>0.78870559538821805</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>34645</v>
+        <v>0.99012844566315406</v>
       </c>
       <c r="C26">
-        <v>0.99012844566315406</v>
-      </c>
-      <c r="D26">
         <v>0.76389680532897697</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>34567</v>
+        <v>0.99097405039488495</v>
       </c>
       <c r="C27">
-        <v>0.99097405039488495</v>
-      </c>
-      <c r="D27">
         <v>0.76457406667721195</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>41453</v>
+        <v>0.99047113598533199</v>
       </c>
       <c r="C28">
-        <v>0.99047113598533199</v>
-      </c>
-      <c r="D28">
         <v>0.85509509634838599</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>35222</v>
+        <v>0.99122707398784804</v>
       </c>
       <c r="C29">
-        <v>0.99122707398784804</v>
-      </c>
-      <c r="D29">
         <v>0.79909829504410901</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>34611</v>
+        <v>0.99165005345121404</v>
       </c>
       <c r="C30">
-        <v>0.99165005345121404</v>
-      </c>
-      <c r="D30">
         <v>0.79176897366356802</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>35627</v>
+        <v>0.99127066550649701</v>
       </c>
       <c r="C31">
-        <v>0.99127066550649701</v>
-      </c>
-      <c r="D31">
         <v>0.81426460299327796</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>35153</v>
+        <v>0.99212016044149798</v>
       </c>
       <c r="C32">
-        <v>0.99212016044149798</v>
-      </c>
-      <c r="D32">
         <v>0.78577629177347397</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>35038</v>
+        <v>0.99175181231805398</v>
       </c>
       <c r="C33">
-        <v>0.99175181231805398</v>
-      </c>
-      <c r="D33">
         <v>0.76216904981549805</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>42245</v>
+        <v>0.99076813824121202</v>
       </c>
       <c r="C34">
-        <v>0.99076813824121202</v>
-      </c>
-      <c r="D34">
         <v>0.85960669634605802</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>35647</v>
+        <v>0.99203299015344903</v>
       </c>
       <c r="C35">
-        <v>0.99203299015344903</v>
-      </c>
-      <c r="D35">
         <v>0.79956639910835603</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>35363</v>
+        <v>0.99196900715436997</v>
       </c>
       <c r="C36">
-        <v>0.99196900715436997</v>
-      </c>
-      <c r="D36">
         <v>0.79835596754539095</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>36545</v>
+        <v>0.991626761526884</v>
       </c>
       <c r="C37">
-        <v>0.991626761526884</v>
-      </c>
-      <c r="D37">
         <v>0.84414855628950503</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>35573</v>
+        <v>0.991679082450172</v>
       </c>
       <c r="C38">
-        <v>0.991679082450172</v>
-      </c>
-      <c r="D38">
         <v>0.79276216191554505</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>35709</v>
+        <v>0.99182278977288596</v>
       </c>
       <c r="C39">
-        <v>0.99182278977288596</v>
-      </c>
-      <c r="D39">
         <v>0.80845921655900099</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>42803</v>
+        <v>0.99088848912459404</v>
       </c>
       <c r="C40">
-        <v>0.99088848912459404</v>
-      </c>
-      <c r="D40">
         <v>0.87391324353120503</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>35901</v>
+        <v>0.99097518174981203</v>
       </c>
       <c r="C41">
-        <v>0.99097518174981203</v>
-      </c>
-      <c r="D41">
         <v>0.80211607734423795</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>36109</v>
+        <v>0.99055637098784199</v>
       </c>
       <c r="C42">
-        <v>0.99055637098784199</v>
-      </c>
-      <c r="D42">
         <v>0.83044520150784895</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>36867</v>
+        <v>0.99018092060650398</v>
       </c>
       <c r="C43">
-        <v>0.99018092060650398</v>
-      </c>
-      <c r="D43">
         <v>0.83807949050934605</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>35970</v>
+        <v>0.99026966916875103</v>
       </c>
       <c r="C44">
-        <v>0.99026966916875103</v>
-      </c>
-      <c r="D44">
         <v>0.77511091879536698</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>36276</v>
+        <v>0.99015878266622503</v>
       </c>
       <c r="C45">
-        <v>0.99015878266622503</v>
-      </c>
-      <c r="D45">
         <v>0.78215065074894097</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>43693</v>
+        <v>0.98892271073169602</v>
       </c>
       <c r="C46">
-        <v>0.98892271073169602</v>
-      </c>
-      <c r="D46">
         <v>0.86641651577480105</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>36760</v>
+        <v>0.98939064200217597</v>
       </c>
       <c r="C47">
-        <v>0.98939064200217597</v>
-      </c>
-      <c r="D47">
         <v>0.79918133953160697</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>36437</v>
+        <v>0.98943381727364998</v>
       </c>
       <c r="C48">
-        <v>0.98943381727364998</v>
-      </c>
-      <c r="D48">
         <v>0.79005839497247099</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>43857</v>
+        <v>0.988394099003579</v>
       </c>
       <c r="C49">
-        <v>0.988394099003579</v>
-      </c>
-      <c r="D49">
         <v>0.86286718692641995</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>36431</v>
+        <v>0.98945952622766298</v>
       </c>
       <c r="C50">
-        <v>0.98945952622766298</v>
-      </c>
-      <c r="D50">
         <v>0.79991097687367696</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>36439</v>
+        <v>0.98946184033590301</v>
       </c>
       <c r="C51">
-        <v>0.98946184033590301</v>
-      </c>
-      <c r="D51">
         <v>0.79344275239499495</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>43826</v>
+        <v>0.988842239766348</v>
       </c>
       <c r="C52">
-        <v>0.988842239766348</v>
-      </c>
-      <c r="D52">
         <v>0.88188193600526199</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>36849</v>
+        <v>0.98944340416293497</v>
       </c>
       <c r="C53">
-        <v>0.98944340416293497</v>
-      </c>
-      <c r="D53">
         <v>0.82989004952816303</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>36242</v>
+        <v>0.988907896915181</v>
       </c>
       <c r="C54">
-        <v>0.988907896915181</v>
-      </c>
-      <c r="D54">
         <v>0.80315886072407805</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>44167</v>
+        <v>0.98818122127380104</v>
       </c>
       <c r="C55">
-        <v>0.98818122127380104</v>
-      </c>
-      <c r="D55">
         <v>0.87366526866470495</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>37297</v>
+        <v>0.98903397056063402</v>
       </c>
       <c r="C56">
-        <v>0.98903397056063402</v>
-      </c>
-      <c r="D56">
         <v>0.82683342894159095</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>37108</v>
+        <v>0.98838525385361597</v>
       </c>
       <c r="C57">
-        <v>0.98838525385361597</v>
-      </c>
-      <c r="D57">
         <v>0.81870792338162202</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>45000</v>
+        <v>0.98751111111111101</v>
       </c>
       <c r="C58">
-        <v>0.98751111111111101</v>
-      </c>
-      <c r="D58">
         <v>0.88841504098485502</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>37678</v>
+        <v>0.98832209777588997</v>
       </c>
       <c r="C59">
-        <v>0.98832209777588997</v>
-      </c>
-      <c r="D59">
         <v>0.82942722882447695</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>38030</v>
+        <v>0.98811464633184298</v>
       </c>
       <c r="C60">
-        <v>0.98811464633184298</v>
-      </c>
-      <c r="D60">
         <v>0.81489473840416704</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>45844</v>
+        <v>0.98758834307651999</v>
       </c>
       <c r="C61">
-        <v>0.98758834307651999</v>
-      </c>
-      <c r="D61">
         <v>0.88949886758041596</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>37972</v>
+        <v>0.98812282734646495</v>
       </c>
       <c r="C62">
-        <v>0.98812282734646495</v>
-      </c>
-      <c r="D62">
         <v>0.82470481813561103</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>37997</v>
+        <v>0.98807800615838004</v>
       </c>
       <c r="C63">
-        <v>0.98807800615838004</v>
-      </c>
-      <c r="D63">
         <v>0.82864181131791204</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>45919</v>
+        <v>0.98739084039286495</v>
       </c>
       <c r="C64">
-        <v>0.98739084039286495</v>
-      </c>
-      <c r="D64">
         <v>0.89164982645872803</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>38509</v>
+        <v>0.98667843880651196</v>
       </c>
       <c r="C65">
-        <v>0.98667843880651196</v>
-      </c>
-      <c r="D65">
         <v>0.85698265561885301</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>37258</v>
+        <v>0.98765365827473295</v>
       </c>
       <c r="C66">
-        <v>0.98765365827473295</v>
-      </c>
-      <c r="D66">
         <v>0.82770486912609598</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>45629</v>
+        <v>0.98755177628262703</v>
       </c>
       <c r="C67">
-        <v>0.98755177628262703</v>
-      </c>
-      <c r="D67">
         <v>0.89875766788079703</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>37392</v>
+        <v>0.98759092854086405</v>
       </c>
       <c r="C68">
-        <v>0.98759092854086405</v>
-      </c>
-      <c r="D68">
         <v>0.83403026455768303</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>37099</v>
+        <v>0.98781638319092102</v>
       </c>
       <c r="C69">
-        <v>0.98781638319092102</v>
-      </c>
-      <c r="D69">
         <v>0.84075617626226096</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>45512</v>
+        <v>0.98782738618386301</v>
       </c>
       <c r="C70">
-        <v>0.98782738618386301</v>
-      </c>
-      <c r="D70">
         <v>0.90889616976008902</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>37387</v>
+        <v>0.98796373070853505</v>
       </c>
       <c r="C71">
-        <v>0.98796373070853505</v>
-      </c>
-      <c r="D71">
         <v>0.85574272697535203</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>36857</v>
+        <v>0.98814336489676302</v>
       </c>
       <c r="C72">
-        <v>0.98814336489676302</v>
-      </c>
-      <c r="D72">
         <v>0.84844589971792705</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>45305</v>
+        <v>0.98805871316631699</v>
       </c>
       <c r="C73">
-        <v>0.98805871316631699</v>
-      </c>
-      <c r="D73">
         <v>0.90120058988463403</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>36996</v>
+        <v>0.98764731322305099</v>
       </c>
       <c r="C74">
-        <v>0.98764731322305099</v>
-      </c>
-      <c r="D74">
         <v>0.83358477283414301</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>36846</v>
+        <v>0.98754274548119203</v>
       </c>
       <c r="C75">
-        <v>0.98754274548119203</v>
-      </c>
-      <c r="D75">
         <v>0.83597988762556197</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>45066</v>
+        <v>0.98846136777171201</v>
       </c>
       <c r="C76">
-        <v>0.98846136777171201</v>
-      </c>
-      <c r="D76">
         <v>0.91327957360211098</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>36840</v>
+        <v>0.988925081433224</v>
       </c>
       <c r="C77">
-        <v>0.988925081433224</v>
-      </c>
-      <c r="D77">
         <v>0.86168132697890398</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>35833</v>
+        <v>0.98928362124298796</v>
       </c>
       <c r="C78">
-        <v>0.98928362124298796</v>
-      </c>
-      <c r="D78">
         <v>0.85292277297118801</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>44473</v>
+        <v>0.98909450677939403</v>
       </c>
       <c r="C79">
-        <v>0.98909450677939403</v>
-      </c>
-      <c r="D79">
         <v>0.91896933466507802</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>36018</v>
+        <v>0.99003276139707896</v>
       </c>
       <c r="C80">
-        <v>0.99003276139707896</v>
-      </c>
-      <c r="D80">
         <v>0.87842621598290904</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>35174</v>
+        <v>0.99010632853812397</v>
       </c>
       <c r="C81">
-        <v>0.99010632853812397</v>
-      </c>
-      <c r="D81">
         <v>0.87850195710691104</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>44006</v>
+        <v>0.98943325910103097</v>
       </c>
       <c r="C82">
-        <v>0.98943325910103097</v>
-      </c>
-      <c r="D82">
         <v>0.94129696768016402</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>36089</v>
+        <v>0.990551137465709</v>
       </c>
       <c r="C83">
-        <v>0.990551137465709</v>
-      </c>
-      <c r="D83">
         <v>0.90482143930382197</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>34557</v>
+        <v>0.990797812310096</v>
       </c>
       <c r="C84">
-        <v>0.990797812310096</v>
-      </c>
-      <c r="D84">
         <v>0.90019732288536203</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>43801</v>
+        <v>0.989977397776306</v>
       </c>
       <c r="C85">
-        <v>0.989977397776306</v>
-      </c>
-      <c r="D85">
         <v>0.95169205914430499</v>
       </c>
     </row>
